--- a/Docs/Resources/LinesKpi.xlsx
+++ b/Docs/Resources/LinesKpi.xlsx
@@ -71,16 +71,70 @@
     <t xml:space="preserve">主车道线</t>
   </si>
   <si>
-    <t xml:space="preserve">20-250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250-1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000-5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000-99999</t>
+    <t xml:space="preserve">R(20~250)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">250~1000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1000~5000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5000~99999)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">次车道线</t>
@@ -154,8 +208,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Noto Mono"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -168,9 +222,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +303,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,7 +328,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,6 +345,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,14 +391,14 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J15"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.46"/>
@@ -499,7 +556,7 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="9" t="n">
@@ -537,7 +594,7 @@
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="n">
@@ -575,7 +632,7 @@
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="9" t="n">
@@ -647,11 +704,11 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="9" t="n">
@@ -676,14 +733,14 @@
       <c r="J9" s="9" t="n">
         <v>0.29</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
       <c r="ALS9" s="1"/>
       <c r="ALT9" s="1"/>
       <c r="ALU9" s="1"/>
@@ -707,7 +764,7 @@
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="9" t="n">
@@ -745,7 +802,7 @@
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="9" t="n">
@@ -817,7 +874,7 @@
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="n">
@@ -847,11 +904,11 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9" t="n">
@@ -872,14 +929,14 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
       <c r="ALS14" s="1"/>
       <c r="ALT14" s="1"/>
       <c r="ALU14" s="1"/>
@@ -903,7 +960,7 @@
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="9" t="n">
@@ -962,7 +1019,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J15"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1092,7 +1149,7 @@
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="14" t="n">
         <v>20241130</v>
       </c>
       <c r="C4" s="9"/>
@@ -1127,7 +1184,7 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="14" t="n">
         <v>20241230</v>
       </c>
       <c r="C5" s="9"/>
@@ -1162,7 +1219,7 @@
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="14" t="n">
         <v>20250228</v>
       </c>
       <c r="C6" s="9"/>
@@ -1197,7 +1254,7 @@
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="14" t="n">
         <v>20250330</v>
       </c>
       <c r="C7" s="9"/>
@@ -1232,7 +1289,7 @@
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="14" t="n">
         <v>20241130</v>
       </c>
       <c r="C8" s="9"/>
@@ -1263,11 +1320,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="14" t="n">
         <v>20241230</v>
       </c>
       <c r="C9" s="9"/>
@@ -1288,15 +1345,15 @@
       <c r="J9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
       <c r="ALT9" s="1"/>
       <c r="ALU9" s="1"/>
       <c r="ALV9" s="1"/>
@@ -1319,7 +1376,7 @@
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="14" t="n">
         <v>20250228</v>
       </c>
       <c r="C10" s="9"/>
@@ -1354,7 +1411,7 @@
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="14" t="n">
         <v>20250330</v>
       </c>
       <c r="C11" s="9"/>
@@ -1389,7 +1446,7 @@
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="14" t="n">
         <v>20241130</v>
       </c>
       <c r="C12" s="9"/>
@@ -1420,7 +1477,7 @@
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="14" t="n">
         <v>20241230</v>
       </c>
       <c r="C13" s="9"/>
@@ -1447,11 +1504,11 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="14" t="n">
         <v>20250228</v>
       </c>
       <c r="C14" s="9"/>
@@ -1468,15 +1525,15 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
       <c r="ALT14" s="1"/>
       <c r="ALU14" s="1"/>
       <c r="ALV14" s="1"/>
@@ -1499,7 +1556,7 @@
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="14" t="n">
         <v>20250330</v>
       </c>
       <c r="C15" s="9"/>
